--- a/Software/prog/SW4STM32_STM32F429i_DISCO/TouchGFX/assets/texts/texts.xlsx
+++ b/Software/prog/SW4STM32_STM32F429i_DISCO/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="105">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -312,6 +312,30 @@
   </si>
   <si>
     <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">position :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;P&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Pos&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°</t>
   </si>
 </sst>
 </file>
@@ -1932,9 +1956,57 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
-    <row r="15" spans="2:10"/>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="16" spans="2:10"/>
     <row r="17" spans="4:4"/>
     <row r="18" spans="4:4"/>

--- a/Software/prog/SW4STM32_STM32F429i_DISCO/TouchGFX/assets/texts/texts.xlsx
+++ b/Software/prog/SW4STM32_STM32F429i_DISCO/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5535" uniqueCount="113">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -336,6 +336,31 @@
   </si>
   <si>
     <t xml:space="preserve">°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXx</t>
   </si>
 </sst>
 </file>
@@ -2001,14 +2026,46 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:10"/>
-    <row r="17" spans="4:4"/>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="18" spans="4:4"/>
     <row r="19" spans="4:4"/>
     <row r="20" spans="4:4"/>
